--- a/H_results.xlsx
+++ b/H_results.xlsx
@@ -509,7 +509,7 @@
         <v>17554.21825360228</v>
       </c>
       <c r="G2" t="n">
-        <v>8509.720420268583</v>
+        <v>8326.917064884537</v>
       </c>
       <c r="H2" t="n">
         <v>17550.68204641592</v>
@@ -545,7 +545,7 @@
         <v>20575.46131808642</v>
       </c>
       <c r="G3" t="n">
-        <v>17094.7536306427</v>
+        <v>17110.42029856801</v>
       </c>
       <c r="H3" t="n">
         <v>20575.34399756911</v>
@@ -581,7 +581,7 @@
         <v>23975.76916397665</v>
       </c>
       <c r="G4" t="n">
-        <v>22231.83681584428</v>
+        <v>21996.6986388946</v>
       </c>
       <c r="H4" t="n">
         <v>23973.99886340679</v>
@@ -617,7 +617,7 @@
         <v>16485.3525975895</v>
       </c>
       <c r="G5" t="n">
-        <v>6195.470518539567</v>
+        <v>6205.166233369367</v>
       </c>
       <c r="H5" t="n">
         <v>16487.13669997498</v>
@@ -653,7 +653,7 @@
         <v>0.5923684558414695</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5257431468709437</v>
+        <v>0.5232227826457628</v>
       </c>
       <c r="H6" t="n">
         <v>0.592108545773244</v>
@@ -689,7 +689,7 @@
         <v>0.5863975080012351</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5796809973993206</v>
+        <v>0.5796573099754347</v>
       </c>
       <c r="H7" t="n">
         <v>0.5864200361333221</v>
@@ -725,7 +725,7 @@
         <v>0.5709397031663825</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5545366382550266</v>
+        <v>0.5521592834326524</v>
       </c>
       <c r="H8" t="n">
         <v>0.5705992003002501</v>
@@ -761,7 +761,7 @@
         <v>0.6090467270945127</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4926898300173492</v>
+        <v>0.4928614187646836</v>
       </c>
       <c r="H9" t="n">
         <v>0.6082247209034977</v>
@@ -797,7 +797,7 @@
         <v>0.5210518335837945</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4238204747057719</v>
+        <v>0.422663420696721</v>
       </c>
       <c r="H10" t="n">
         <v>0.521031863078782</v>
@@ -833,7 +833,7 @@
         <v>0.525968655068758</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4968201550943907</v>
+        <v>0.4971081249405718</v>
       </c>
       <c r="H11" t="n">
         <v>0.5259617231271564</v>
@@ -869,7 +869,7 @@
         <v>0.5372441699676417</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5480300352097685</v>
+        <v>0.5499719520609488</v>
       </c>
       <c r="H12" t="n">
         <v>0.5376338369715714</v>
@@ -905,7 +905,7 @@
         <v>0.5165263286216938</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5124450100664013</v>
+        <v>0.5121939565249189</v>
       </c>
       <c r="H13" t="n">
         <v>0.5167976142366348</v>

--- a/H_results.xlsx
+++ b/H_results.xlsx
@@ -509,7 +509,7 @@
         <v>17554.21825360228</v>
       </c>
       <c r="G2" t="n">
-        <v>8326.917064884537</v>
+        <v>6791.342860516058</v>
       </c>
       <c r="H2" t="n">
         <v>17550.68204641592</v>
@@ -545,7 +545,7 @@
         <v>20575.46131808642</v>
       </c>
       <c r="G3" t="n">
-        <v>17110.42029856801</v>
+        <v>18061.20503683716</v>
       </c>
       <c r="H3" t="n">
         <v>20575.34399756911</v>
@@ -581,7 +581,7 @@
         <v>23975.76916397665</v>
       </c>
       <c r="G4" t="n">
-        <v>21996.6986388946</v>
+        <v>21985.98407446607</v>
       </c>
       <c r="H4" t="n">
         <v>23973.99886340679</v>
@@ -617,7 +617,7 @@
         <v>16485.3525975895</v>
       </c>
       <c r="G5" t="n">
-        <v>6205.166233369367</v>
+        <v>4511.590843914633</v>
       </c>
       <c r="H5" t="n">
         <v>16487.13669997498</v>
@@ -653,7 +653,7 @@
         <v>0.5923684558414695</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5232227826457628</v>
+        <v>0.4977891304787667</v>
       </c>
       <c r="H6" t="n">
         <v>0.592108545773244</v>
@@ -689,7 +689,7 @@
         <v>0.5863975080012351</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5796573099754347</v>
+        <v>0.5770194927500979</v>
       </c>
       <c r="H7" t="n">
         <v>0.5864200361333221</v>
@@ -722,10 +722,10 @@
         <v>0.8386933780734945</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5709397031663825</v>
+        <v>0.5709397031663824</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5521592834326524</v>
+        <v>0.552088164018942</v>
       </c>
       <c r="H8" t="n">
         <v>0.5705992003002501</v>
@@ -761,7 +761,7 @@
         <v>0.6090467270945127</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4928614187646836</v>
+        <v>0.4090653098059532</v>
       </c>
       <c r="H9" t="n">
         <v>0.6082247209034977</v>
@@ -797,7 +797,7 @@
         <v>0.5210518335837945</v>
       </c>
       <c r="G10" t="n">
-        <v>0.422663420696721</v>
+        <v>0.4219617654684381</v>
       </c>
       <c r="H10" t="n">
         <v>0.521031863078782</v>
@@ -833,7 +833,7 @@
         <v>0.525968655068758</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4971081249405718</v>
+        <v>0.5175019391602956</v>
       </c>
       <c r="H11" t="n">
         <v>0.5259617231271564</v>
@@ -869,7 +869,7 @@
         <v>0.5372441699676417</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5499719520609488</v>
+        <v>0.5500063912979563</v>
       </c>
       <c r="H12" t="n">
         <v>0.5376338369715714</v>
@@ -905,7 +905,7 @@
         <v>0.5165263286216938</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5121939565249189</v>
+        <v>0.5912973920961522</v>
       </c>
       <c r="H13" t="n">
         <v>0.5167976142366348</v>

--- a/H_results.xlsx
+++ b/H_results.xlsx
@@ -509,7 +509,7 @@
         <v>17554.21825360228</v>
       </c>
       <c r="G2" t="n">
-        <v>6791.342860516058</v>
+        <v>6788.088191908992</v>
       </c>
       <c r="H2" t="n">
         <v>17550.68204641592</v>
@@ -545,7 +545,7 @@
         <v>20575.46131808642</v>
       </c>
       <c r="G3" t="n">
-        <v>18061.20503683716</v>
+        <v>17086.97919129642</v>
       </c>
       <c r="H3" t="n">
         <v>20575.34399756911</v>
@@ -581,7 +581,7 @@
         <v>23975.76916397665</v>
       </c>
       <c r="G4" t="n">
-        <v>21985.98407446607</v>
+        <v>22231.83681584428</v>
       </c>
       <c r="H4" t="n">
         <v>23973.99886340679</v>
@@ -617,7 +617,7 @@
         <v>16485.3525975895</v>
       </c>
       <c r="G5" t="n">
-        <v>4511.590843914633</v>
+        <v>6198.711515966546</v>
       </c>
       <c r="H5" t="n">
         <v>16487.13669997498</v>
@@ -653,7 +653,7 @@
         <v>0.5923684558414695</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4977891304787667</v>
+        <v>0.4978133868217219</v>
       </c>
       <c r="H6" t="n">
         <v>0.592108545773244</v>
@@ -689,7 +689,7 @@
         <v>0.5863975080012351</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5770194927500979</v>
+        <v>0.5797070920391136</v>
       </c>
       <c r="H7" t="n">
         <v>0.5864200361333221</v>
@@ -722,10 +722,10 @@
         <v>0.8386933780734945</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5709397031663824</v>
+        <v>0.5709397031663825</v>
       </c>
       <c r="G8" t="n">
-        <v>0.552088164018942</v>
+        <v>0.5545366382550266</v>
       </c>
       <c r="H8" t="n">
         <v>0.5705992003002501</v>
@@ -761,7 +761,7 @@
         <v>0.6090467270945127</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4090653098059532</v>
+        <v>0.4927461019866803</v>
       </c>
       <c r="H9" t="n">
         <v>0.6082247209034977</v>
@@ -797,7 +797,7 @@
         <v>0.5210518335837945</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4219617654684381</v>
+        <v>0.4218885172214436</v>
       </c>
       <c r="H10" t="n">
         <v>0.521031863078782</v>
@@ -833,7 +833,7 @@
         <v>0.525968655068758</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5175019391602956</v>
+        <v>0.4965821404509979</v>
       </c>
       <c r="H11" t="n">
         <v>0.5259617231271564</v>
@@ -869,7 +869,7 @@
         <v>0.5372441699676417</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5500063912979563</v>
+        <v>0.5480300352097685</v>
       </c>
       <c r="H12" t="n">
         <v>0.5376338369715714</v>
@@ -905,7 +905,7 @@
         <v>0.5165263286216938</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5912973920961522</v>
+        <v>0.5123615864059685</v>
       </c>
       <c r="H13" t="n">
         <v>0.5167976142366348</v>
